--- a/Manuscript_items/Table_T2D_predmodels.xlsx
+++ b/Manuscript_items/Table_T2D_predmodels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrw657\Documents\GitHub\NHANES_T2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrw657\Documents\GitHub\NHANES_T2D\Manuscript_items\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1086,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,107 +1155,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>94</v>
+    <row r="3" spans="1:8" ht="120.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="84.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="120.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1269,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
@@ -1492,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B6:B7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,6 +1544,58 @@
         <v>90</v>
       </c>
     </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
